--- a/Internal macros/macro_DK_test.xlsx
+++ b/Internal macros/macro_DK_test.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
   <si>
     <t>Denmark</t>
   </si>
@@ -46,18 +46,6 @@
   </si>
   <si>
     <t>Interest Rate</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
   </si>
 </sst>
 </file>
@@ -164,8 +152,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B10" t="n">
         <v>9.0</v>
@@ -178,8 +166,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B11" t="n">
         <v>10.0</v>
@@ -192,8 +180,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>11</v>
+      <c r="A12" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B12" t="n">
         <v>11.0</v>
@@ -206,8 +194,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>11</v>
+      <c r="A13" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B13" t="n">
         <v>12.0</v>
@@ -220,8 +208,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B14" t="n">
         <v>1.0</v>
@@ -234,8 +222,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B15" t="n">
         <v>2.0</v>
@@ -248,8 +236,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B16" t="n">
         <v>3.0</v>
@@ -262,8 +250,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
+      <c r="A17" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B17" t="n">
         <v>4.0</v>
@@ -276,8 +264,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B18" t="n">
         <v>5.0</v>
@@ -290,8 +278,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B19" t="n">
         <v>6.0</v>
@@ -304,8 +292,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B20" t="n">
         <v>7.0</v>
@@ -318,8 +306,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B21" t="n">
         <v>8.0</v>
@@ -332,8 +320,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B22" t="n">
         <v>9.0</v>
@@ -346,8 +334,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>12</v>
+      <c r="A23" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B23" t="n">
         <v>10.0</v>
@@ -360,8 +348,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>12</v>
+      <c r="A24" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B24" t="n">
         <v>11.0</v>
@@ -374,8 +362,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>12</v>
+      <c r="A25" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B25" t="n">
         <v>12.0</v>
@@ -388,8 +376,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>13</v>
+      <c r="A26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B26" t="n">
         <v>1.0</v>
@@ -402,8 +390,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>13</v>
+      <c r="A27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B27" t="n">
         <v>2.0</v>
@@ -416,8 +404,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>13</v>
+      <c r="A28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B28" t="n">
         <v>3.0</v>
@@ -430,8 +418,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>13</v>
+      <c r="A29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B29" t="n">
         <v>4.0</v>
@@ -444,8 +432,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B30" t="n">
         <v>5.0</v>
@@ -458,8 +446,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>13</v>
+      <c r="A31" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B31" t="n">
         <v>6.0</v>
@@ -472,8 +460,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
+      <c r="A32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B32" t="n">
         <v>7.0</v>
@@ -486,8 +474,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>13</v>
+      <c r="A33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B33" t="n">
         <v>8.0</v>
@@ -500,8 +488,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B34" t="n">
         <v>9.0</v>
@@ -514,8 +502,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>13</v>
+      <c r="A35" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B35" t="n">
         <v>10.0</v>
@@ -528,8 +516,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>13</v>
+      <c r="A36" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B36" t="n">
         <v>11.0</v>
@@ -542,8 +530,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>13</v>
+      <c r="A37" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B37" t="n">
         <v>12.0</v>
@@ -556,8 +544,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>14</v>
+      <c r="A38" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B38" t="n">
         <v>1.0</v>
@@ -570,8 +558,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>14</v>
+      <c r="A39" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B39" t="n">
         <v>2.0</v>
@@ -584,8 +572,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>14</v>
+      <c r="A40" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B40" t="n">
         <v>3.0</v>
@@ -598,8 +586,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>14</v>
+      <c r="A41" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B41" t="n">
         <v>4.0</v>
@@ -612,8 +600,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>14</v>
+      <c r="A42" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B42" t="n">
         <v>5.0</v>
@@ -626,8 +614,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
+      <c r="A43" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B43" t="n">
         <v>6.0</v>
@@ -640,8 +628,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>14</v>
+      <c r="A44" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B44" t="n">
         <v>7.0</v>
@@ -654,8 +642,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B45" t="n">
         <v>8.0</v>
@@ -668,8 +656,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>14</v>
+      <c r="A46" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B46" t="n">
         <v>9.0</v>
@@ -682,8 +670,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s">
-        <v>14</v>
+      <c r="A47" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B47" t="n">
         <v>10.0</v>
@@ -696,8 +684,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s">
-        <v>14</v>
+      <c r="A48" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B48" t="n">
         <v>11.0</v>
@@ -710,8 +698,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="s">
-        <v>14</v>
+      <c r="A49" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B49" t="n">
         <v>12.0</v>
@@ -771,8 +759,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>11</v>
+      <c r="A7" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B7" t="n">
         <v>9.0</v>
@@ -785,8 +773,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>11</v>
+      <c r="A8" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B8" t="n">
         <v>10.0</v>
@@ -799,8 +787,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
+      <c r="A9" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B9" t="n">
         <v>11.0</v>
@@ -813,8 +801,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>11</v>
+      <c r="A10" t="n">
+        <v>2017.0</v>
       </c>
       <c r="B10" t="n">
         <v>12.0</v>
@@ -827,8 +815,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>12</v>
+      <c r="A11" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B11" t="n">
         <v>1.0</v>
@@ -841,8 +829,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B12" t="n">
         <v>2.0</v>
@@ -855,8 +843,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>12</v>
+      <c r="A13" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B13" t="n">
         <v>3.0</v>
@@ -869,8 +857,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>12</v>
+      <c r="A14" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B14" t="n">
         <v>4.0</v>
@@ -883,8 +871,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>12</v>
+      <c r="A15" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B15" t="n">
         <v>5.0</v>
@@ -897,8 +885,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>12</v>
+      <c r="A16" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B16" t="n">
         <v>6.0</v>
@@ -911,8 +899,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>12</v>
+      <c r="A17" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B17" t="n">
         <v>7.0</v>
@@ -925,8 +913,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>12</v>
+      <c r="A18" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B18" t="n">
         <v>8.0</v>
@@ -939,8 +927,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>12</v>
+      <c r="A19" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B19" t="n">
         <v>9.0</v>
@@ -953,8 +941,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>12</v>
+      <c r="A20" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B20" t="n">
         <v>10.0</v>
@@ -967,8 +955,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
+      <c r="A21" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B21" t="n">
         <v>11.0</v>
@@ -981,8 +969,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>12</v>
+      <c r="A22" t="n">
+        <v>2018.0</v>
       </c>
       <c r="B22" t="n">
         <v>12.0</v>
@@ -995,8 +983,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>13</v>
+      <c r="A23" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B23" t="n">
         <v>1.0</v>
@@ -1009,8 +997,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>13</v>
+      <c r="A24" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B24" t="n">
         <v>2.0</v>
@@ -1023,8 +1011,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>13</v>
+      <c r="A25" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B25" t="n">
         <v>3.0</v>
@@ -1037,8 +1025,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>13</v>
+      <c r="A26" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B26" t="n">
         <v>4.0</v>
@@ -1051,8 +1039,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>13</v>
+      <c r="A27" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B27" t="n">
         <v>5.0</v>
@@ -1065,8 +1053,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>13</v>
+      <c r="A28" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B28" t="n">
         <v>6.0</v>
@@ -1079,8 +1067,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>13</v>
+      <c r="A29" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B29" t="n">
         <v>7.0</v>
@@ -1093,8 +1081,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>13</v>
+      <c r="A30" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B30" t="n">
         <v>8.0</v>
@@ -1107,8 +1095,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>13</v>
+      <c r="A31" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B31" t="n">
         <v>9.0</v>
@@ -1121,8 +1109,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>13</v>
+      <c r="A32" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B32" t="n">
         <v>10.0</v>
@@ -1135,8 +1123,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>13</v>
+      <c r="A33" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B33" t="n">
         <v>11.0</v>
@@ -1149,8 +1137,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>13</v>
+      <c r="A34" t="n">
+        <v>2019.0</v>
       </c>
       <c r="B34" t="n">
         <v>12.0</v>
@@ -1163,8 +1151,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>14</v>
+      <c r="A35" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B35" t="n">
         <v>1.0</v>
@@ -1177,8 +1165,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>14</v>
+      <c r="A36" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B36" t="n">
         <v>2.0</v>
@@ -1191,8 +1179,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>14</v>
+      <c r="A37" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B37" t="n">
         <v>3.0</v>
@@ -1205,8 +1193,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>14</v>
+      <c r="A38" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B38" t="n">
         <v>4.0</v>
@@ -1219,8 +1207,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>14</v>
+      <c r="A39" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B39" t="n">
         <v>5.0</v>
@@ -1233,8 +1221,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>14</v>
+      <c r="A40" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B40" t="n">
         <v>6.0</v>
@@ -1247,8 +1235,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>14</v>
+      <c r="A41" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B41" t="n">
         <v>7.0</v>
@@ -1261,8 +1249,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>14</v>
+      <c r="A42" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B42" t="n">
         <v>8.0</v>
@@ -1275,8 +1263,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
-        <v>14</v>
+      <c r="A43" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B43" t="n">
         <v>9.0</v>
@@ -1289,8 +1277,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
-        <v>14</v>
+      <c r="A44" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B44" t="n">
         <v>10.0</v>
@@ -1303,8 +1291,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
-        <v>14</v>
+      <c r="A45" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B45" t="n">
         <v>11.0</v>
@@ -1317,8 +1305,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="s">
-        <v>14</v>
+      <c r="A46" t="n">
+        <v>2020.0</v>
       </c>
       <c r="B46" t="n">
         <v>12.0</v>

--- a/Internal macros/macro_DK_test.xlsx
+++ b/Internal macros/macro_DK_test.xlsx
@@ -42,7 +42,7 @@
     <t>month</t>
   </si>
   <si>
-    <t>Stock Index</t>
+    <t>Stock Index Return</t>
   </si>
   <si>
     <t>Interest Rate</t>
@@ -156,7 +156,7 @@
         <v>2017.0</v>
       </c>
       <c r="B10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="n">
         <v>0.0</v>
@@ -170,7 +170,7 @@
         <v>2017.0</v>
       </c>
       <c r="B11" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C11" t="n">
         <v>0.0</v>
@@ -184,7 +184,7 @@
         <v>2017.0</v>
       </c>
       <c r="B12" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C12" t="n">
         <v>0.0</v>
@@ -195,16 +195,16 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B13" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0</v>
+        <v>-0.0</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.33</v>
+        <v>-0.325</v>
       </c>
     </row>
     <row r="14">
@@ -212,7 +212,7 @@
         <v>2018.0</v>
       </c>
       <c r="B14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C14" t="n">
         <v>-0.0</v>
@@ -226,7 +226,7 @@
         <v>2018.0</v>
       </c>
       <c r="B15" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0</v>
@@ -240,13 +240,13 @@
         <v>2018.0</v>
       </c>
       <c r="B16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C16" t="n">
         <v>-0.0</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.325</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="17">
@@ -254,7 +254,7 @@
         <v>2018.0</v>
       </c>
       <c r="B17" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0</v>
@@ -268,7 +268,7 @@
         <v>2018.0</v>
       </c>
       <c r="B18" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C18" t="n">
         <v>-0.0</v>
@@ -282,13 +282,13 @@
         <v>2018.0</v>
       </c>
       <c r="B19" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C19" t="n">
         <v>-0.0</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.32</v>
+        <v>-0.315</v>
       </c>
     </row>
     <row r="20">
@@ -296,7 +296,7 @@
         <v>2018.0</v>
       </c>
       <c r="B20" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C20" t="n">
         <v>-0.0</v>
@@ -310,7 +310,7 @@
         <v>2018.0</v>
       </c>
       <c r="B21" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C21" t="n">
         <v>-0.0</v>
@@ -324,13 +324,13 @@
         <v>2018.0</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C22" t="n">
         <v>-0.0</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.315</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="23">
@@ -338,7 +338,7 @@
         <v>2018.0</v>
       </c>
       <c r="B23" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C23" t="n">
         <v>-0.0</v>
@@ -352,7 +352,7 @@
         <v>2018.0</v>
       </c>
       <c r="B24" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C24" t="n">
         <v>-0.0</v>
@@ -363,16 +363,16 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B25" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.31</v>
+        <v>-0.265</v>
       </c>
     </row>
     <row r="26">
@@ -380,7 +380,7 @@
         <v>2019.0</v>
       </c>
       <c r="B26" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.0</v>
@@ -394,7 +394,7 @@
         <v>2019.0</v>
       </c>
       <c r="B27" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.0</v>
@@ -408,13 +408,13 @@
         <v>2019.0</v>
       </c>
       <c r="B28" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.0</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.265</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="29">
@@ -422,7 +422,7 @@
         <v>2019.0</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.0</v>
@@ -436,7 +436,7 @@
         <v>2019.0</v>
       </c>
       <c r="B30" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.0</v>
@@ -450,13 +450,13 @@
         <v>2019.0</v>
       </c>
       <c r="B31" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.0</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.22</v>
+        <v>-0.175</v>
       </c>
     </row>
     <row r="32">
@@ -464,7 +464,7 @@
         <v>2019.0</v>
       </c>
       <c r="B32" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.0</v>
@@ -478,7 +478,7 @@
         <v>2019.0</v>
       </c>
       <c r="B33" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.0</v>
@@ -492,13 +492,13 @@
         <v>2019.0</v>
       </c>
       <c r="B34" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C34" t="n">
         <v>0.0</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.175</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="35">
@@ -506,7 +506,7 @@
         <v>2019.0</v>
       </c>
       <c r="B35" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.0</v>
@@ -520,7 +520,7 @@
         <v>2019.0</v>
       </c>
       <c r="B36" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.0</v>
@@ -531,16 +531,16 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.0</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.13</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="38">
@@ -548,7 +548,7 @@
         <v>2020.0</v>
       </c>
       <c r="B38" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.0</v>
@@ -562,7 +562,7 @@
         <v>2020.0</v>
       </c>
       <c r="B39" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C39" t="n">
         <v>0.0</v>
@@ -576,13 +576,13 @@
         <v>2020.0</v>
       </c>
       <c r="B40" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.0</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.06</v>
+        <v>0.010000000000000009</v>
       </c>
     </row>
     <row r="41">
@@ -590,7 +590,7 @@
         <v>2020.0</v>
       </c>
       <c r="B41" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.0</v>
@@ -604,7 +604,7 @@
         <v>2020.0</v>
       </c>
       <c r="B42" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.0</v>
@@ -618,13 +618,13 @@
         <v>2020.0</v>
       </c>
       <c r="B43" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C43" t="n">
         <v>0.0</v>
       </c>
       <c r="D43" t="n">
-        <v>0.010000000000000009</v>
+        <v>0.08000000000000002</v>
       </c>
     </row>
     <row r="44">
@@ -632,7 +632,7 @@
         <v>2020.0</v>
       </c>
       <c r="B44" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.0</v>
@@ -646,7 +646,7 @@
         <v>2020.0</v>
       </c>
       <c r="B45" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.0</v>
@@ -660,13 +660,13 @@
         <v>2020.0</v>
       </c>
       <c r="B46" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C46" t="n">
         <v>0.0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08000000000000002</v>
+        <v>0.15000000000000002</v>
       </c>
     </row>
     <row r="47">
@@ -674,7 +674,7 @@
         <v>2020.0</v>
       </c>
       <c r="B47" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C47" t="n">
         <v>0.0</v>
@@ -688,26 +688,12 @@
         <v>2020.0</v>
       </c>
       <c r="B48" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C48" t="n">
         <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.15000000000000002</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="D49" t="n">
         <v>0.15000000000000002</v>
       </c>
     </row>
@@ -763,7 +749,7 @@
         <v>2017.0</v>
       </c>
       <c r="B7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C7" t="n">
         <v>0.0</v>
@@ -777,7 +763,7 @@
         <v>2017.0</v>
       </c>
       <c r="B8" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C8" t="n">
         <v>0.0</v>
@@ -791,7 +777,7 @@
         <v>2017.0</v>
       </c>
       <c r="B9" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C9" t="n">
         <v>0.0</v>
@@ -802,16 +788,16 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="B10" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0</v>
+        <v>-2.358001139497617</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.33</v>
+        <v>-0.1875</v>
       </c>
     </row>
     <row r="11">
@@ -819,7 +805,7 @@
         <v>2018.0</v>
       </c>
       <c r="B11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C11" t="n">
         <v>-2.358001139497617</v>
@@ -833,7 +819,7 @@
         <v>2018.0</v>
       </c>
       <c r="B12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C12" t="n">
         <v>-2.358001139497617</v>
@@ -847,13 +833,13 @@
         <v>2018.0</v>
       </c>
       <c r="B13" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C13" t="n">
         <v>-2.358001139497617</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1875</v>
+        <v>-0.044999999999999984</v>
       </c>
     </row>
     <row r="14">
@@ -861,7 +847,7 @@
         <v>2018.0</v>
       </c>
       <c r="B14" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C14" t="n">
         <v>-2.358001139497617</v>
@@ -875,7 +861,7 @@
         <v>2018.0</v>
       </c>
       <c r="B15" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C15" t="n">
         <v>-2.358001139497617</v>
@@ -889,13 +875,13 @@
         <v>2018.0</v>
       </c>
       <c r="B16" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C16" t="n">
         <v>-2.358001139497617</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.044999999999999984</v>
+        <v>0.09750000000000003</v>
       </c>
     </row>
     <row r="17">
@@ -903,7 +889,7 @@
         <v>2018.0</v>
       </c>
       <c r="B17" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C17" t="n">
         <v>-2.358001139497617</v>
@@ -917,7 +903,7 @@
         <v>2018.0</v>
       </c>
       <c r="B18" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="n">
         <v>-2.358001139497617</v>
@@ -931,13 +917,13 @@
         <v>2018.0</v>
       </c>
       <c r="B19" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C19" t="n">
         <v>-2.358001139497617</v>
       </c>
       <c r="D19" t="n">
-        <v>0.09750000000000003</v>
+        <v>0.24000000000000005</v>
       </c>
     </row>
     <row r="20">
@@ -945,7 +931,7 @@
         <v>2018.0</v>
       </c>
       <c r="B20" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C20" t="n">
         <v>-2.358001139497617</v>
@@ -959,7 +945,7 @@
         <v>2018.0</v>
       </c>
       <c r="B21" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C21" t="n">
         <v>-2.358001139497617</v>
@@ -970,16 +956,16 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>2018.0</v>
+        <v>2019.0</v>
       </c>
       <c r="B22" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C22" t="n">
-        <v>-2.358001139497617</v>
+        <v>0.24090134230678473</v>
       </c>
       <c r="D22" t="n">
-        <v>0.24000000000000005</v>
+        <v>0.26500000000000007</v>
       </c>
     </row>
     <row r="23">
@@ -987,7 +973,7 @@
         <v>2019.0</v>
       </c>
       <c r="B23" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C23" t="n">
         <v>0.24090134230678473</v>
@@ -1001,7 +987,7 @@
         <v>2019.0</v>
       </c>
       <c r="B24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C24" t="n">
         <v>0.24090134230678473</v>
@@ -1015,13 +1001,13 @@
         <v>2019.0</v>
       </c>
       <c r="B25" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C25" t="n">
         <v>0.24090134230678473</v>
       </c>
       <c r="D25" t="n">
-        <v>0.26500000000000007</v>
+        <v>0.2900000000000001</v>
       </c>
     </row>
     <row r="26">
@@ -1029,7 +1015,7 @@
         <v>2019.0</v>
       </c>
       <c r="B26" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C26" t="n">
         <v>0.24090134230678473</v>
@@ -1043,7 +1029,7 @@
         <v>2019.0</v>
       </c>
       <c r="B27" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="n">
         <v>0.24090134230678473</v>
@@ -1057,13 +1043,13 @@
         <v>2019.0</v>
       </c>
       <c r="B28" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C28" t="n">
         <v>0.24090134230678473</v>
       </c>
       <c r="D28" t="n">
-        <v>0.2900000000000001</v>
+        <v>0.3150000000000001</v>
       </c>
     </row>
     <row r="29">
@@ -1071,7 +1057,7 @@
         <v>2019.0</v>
       </c>
       <c r="B29" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C29" t="n">
         <v>0.24090134230678473</v>
@@ -1085,7 +1071,7 @@
         <v>2019.0</v>
       </c>
       <c r="B30" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C30" t="n">
         <v>0.24090134230678473</v>
@@ -1099,13 +1085,13 @@
         <v>2019.0</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C31" t="n">
         <v>0.24090134230678473</v>
       </c>
       <c r="D31" t="n">
-        <v>0.3150000000000001</v>
+        <v>0.34000000000000014</v>
       </c>
     </row>
     <row r="32">
@@ -1113,7 +1099,7 @@
         <v>2019.0</v>
       </c>
       <c r="B32" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C32" t="n">
         <v>0.24090134230678473</v>
@@ -1127,7 +1113,7 @@
         <v>2019.0</v>
       </c>
       <c r="B33" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C33" t="n">
         <v>0.24090134230678473</v>
@@ -1138,16 +1124,16 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2019.0</v>
+        <v>2020.0</v>
       </c>
       <c r="B34" t="n">
-        <v>12.0</v>
+        <v>1.0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.24090134230678473</v>
+        <v>0.49308913350738237</v>
       </c>
       <c r="D34" t="n">
-        <v>0.34000000000000014</v>
+        <v>0.39000000000000007</v>
       </c>
     </row>
     <row r="35">
@@ -1155,7 +1141,7 @@
         <v>2020.0</v>
       </c>
       <c r="B35" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="C35" t="n">
         <v>0.49308913350738237</v>
@@ -1169,7 +1155,7 @@
         <v>2020.0</v>
       </c>
       <c r="B36" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="C36" t="n">
         <v>0.49308913350738237</v>
@@ -1183,13 +1169,13 @@
         <v>2020.0</v>
       </c>
       <c r="B37" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C37" t="n">
         <v>0.49308913350738237</v>
       </c>
       <c r="D37" t="n">
-        <v>0.39000000000000007</v>
+        <v>0.4400000000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1197,7 +1183,7 @@
         <v>2020.0</v>
       </c>
       <c r="B38" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="C38" t="n">
         <v>0.49308913350738237</v>
@@ -1211,7 +1197,7 @@
         <v>2020.0</v>
       </c>
       <c r="B39" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C39" t="n">
         <v>0.49308913350738237</v>
@@ -1225,13 +1211,13 @@
         <v>2020.0</v>
       </c>
       <c r="B40" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="C40" t="n">
         <v>0.49308913350738237</v>
       </c>
       <c r="D40" t="n">
-        <v>0.4400000000000001</v>
+        <v>0.49000000000000005</v>
       </c>
     </row>
     <row r="41">
@@ -1239,7 +1225,7 @@
         <v>2020.0</v>
       </c>
       <c r="B41" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="C41" t="n">
         <v>0.49308913350738237</v>
@@ -1253,7 +1239,7 @@
         <v>2020.0</v>
       </c>
       <c r="B42" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="C42" t="n">
         <v>0.49308913350738237</v>
@@ -1267,13 +1253,13 @@
         <v>2020.0</v>
       </c>
       <c r="B43" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="C43" t="n">
         <v>0.49308913350738237</v>
       </c>
       <c r="D43" t="n">
-        <v>0.49000000000000005</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="44">
@@ -1281,7 +1267,7 @@
         <v>2020.0</v>
       </c>
       <c r="B44" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="C44" t="n">
         <v>0.49308913350738237</v>
@@ -1295,26 +1281,12 @@
         <v>2020.0</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
       <c r="C45" t="n">
         <v>0.49308913350738237</v>
       </c>
       <c r="D45" t="n">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>2020.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.49308913350738237</v>
-      </c>
-      <c r="D46" t="n">
         <v>0.54</v>
       </c>
     </row>
